--- a/Travel Survey KCOKER.xlsx
+++ b/Travel Survey KCOKER.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" activeTab="1"/>
+    <workbookView xWindow="16420" yWindow="2460" windowWidth="21980" windowHeight="17540" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="in" sheetId="1" r:id="rId1"/>
-    <sheet name="Outcome" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Biz Case" sheetId="3" r:id="rId2"/>
+    <sheet name="Power BI Dashboard" sheetId="4" r:id="rId3"/>
+    <sheet name="Outcome" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="63">
   <si>
     <t>Timestamp</t>
   </si>
@@ -142,6 +144,114 @@
       </rPr>
       <t xml:space="preserve"> for the upcoming vacation season of July and December 2023. I also suggest that “Marital Status” be included in the next survey questionnaire, as this will help to differentiate (and tailor products to) respondents who indicated interest to travel with family, and those interested in group activity.</t>
     </r>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>As the travel industry continues to evolve, it has become</t>
+  </si>
+  <si>
+    <t>increasingly important for travel companies to offer personalized</t>
+  </si>
+  <si>
+    <t>services that cater to the individual needs of their customers. The</t>
+  </si>
+  <si>
+    <t>ability to understand and meet these needs is essential for</t>
+  </si>
+  <si>
+    <t>building long-term relationships with customers, and for</t>
+  </si>
+  <si>
+    <t>maintaining a competitive edge in the market.</t>
+  </si>
+  <si>
+    <t>This case study examines a travel company that is seeking to</t>
+  </si>
+  <si>
+    <t>understand the needs of its customers in order to provide services</t>
+  </si>
+  <si>
+    <t>that are tailored to their specific requirements.</t>
+  </si>
+  <si>
+    <t>By conducting research into customer preferences and behavior,</t>
+  </si>
+  <si>
+    <t>the company aims to gain insights into what its customers want</t>
+  </si>
+  <si>
+    <t>from a travel experience, and to use this information to design</t>
+  </si>
+  <si>
+    <t>services that are customized to their needs.</t>
+  </si>
+  <si>
+    <t>Through this case study, we will explore the challenges and</t>
+  </si>
+  <si>
+    <t>opportunities that arise when seeking to understand the needs of</t>
+  </si>
+  <si>
+    <t>customers in the travel industry, and we will provide insights into</t>
+  </si>
+  <si>
+    <t>how travel companies can use customer insights to develop</t>
+  </si>
+  <si>
+    <t>innovative and engaging services.</t>
+  </si>
+  <si>
+    <t>Data Dictionary</t>
+  </si>
+  <si>
+    <t>• Timestamp: The date and time when the customer responded</t>
+  </si>
+  <si>
+    <t>• Gender: The gender of the customer</t>
+  </si>
+  <si>
+    <t>• Destination: The preferred destination of the customers</t>
+  </si>
+  <si>
+    <t>• Time of Travel (Jan = 1, Dec = 12): The time of the month when the customers will prefer to travel</t>
+  </si>
+  <si>
+    <t>• Type of Activity: The type of activities the customers will like to engage in. Group, Individual, etc</t>
+  </si>
+  <si>
+    <t>• Holiday with who?: If customers will be travelling alone, with family or friends</t>
+  </si>
+  <si>
+    <t>• Transportation: How customers will prefer to move around their preferred location</t>
+  </si>
+  <si>
+    <t>1. How many customers responded to the survey?</t>
+  </si>
+  <si>
+    <t>2. How many male and female responded?</t>
+  </si>
+  <si>
+    <t>3. Where is the most preferred destination?</t>
+  </si>
+  <si>
+    <t>4. What is the most preferred type of activity?</t>
+  </si>
+  <si>
+    <t>5. How would customers like to move around?</t>
+  </si>
+  <si>
+    <t>6. What is the customer’s preferred mode of</t>
+  </si>
+  <si>
+    <t>holidaying?</t>
+  </si>
+  <si>
+    <t>7. When will the customers prefer to travel?</t>
+  </si>
+  <si>
+    <t>8. What is the gender distribution?</t>
   </si>
 </sst>
 </file>
@@ -632,7 +742,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -640,6 +750,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -697,6 +813,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="152400"/>
+          <a:ext cx="12865100" cy="7188200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9622,10 +9781,232 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
